--- a/Online_Retail_Dataset_500.xlsx
+++ b/Online_Retail_Dataset_500.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athifaaq\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2DA11-223A-48BA-A701-CDD4CF3C29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51DE83C-3D02-44FD-BF1D-1D3DDB8A7282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1060">
   <si>
     <t>Order ID</t>
   </si>
@@ -3579,19 +3579,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28088.449999999997</c:v>
+                  <c:v>39335.760000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30034.27</c:v>
+                  <c:v>26421.920000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25678.04</c:v>
+                  <c:v>20093.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23455.410000000003</c:v>
+                  <c:v>32411.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20037.87</c:v>
+                  <c:v>20603.900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,25 +4092,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12106.8</c:v>
+                  <c:v>12957.619999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29003.079999999998</c:v>
+                  <c:v>22091.600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23708.87</c:v>
+                  <c:v>15915.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16609.089999999997</c:v>
+                  <c:v>14717.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16946.260000000002</c:v>
+                  <c:v>33916.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41494.420000000006</c:v>
+                  <c:v>17216.060000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9408.75</c:v>
+                  <c:v>23324.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,19 +4580,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Foundation</c:v>
+                  <c:v>Jacket</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Lamp</c:v>
+                  <c:v>Lipstick</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Laptop</c:v>
+                  <c:v>Monitor</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Jacket</c:v>
+                  <c:v>Socks</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Magazine</c:v>
+                  <c:v>Vase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4604,19 +4604,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14131.06</c:v>
+                  <c:v>11965.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7332.47</c:v>
+                  <c:v>7760.3099999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7529.9500000000007</c:v>
+                  <c:v>11356.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7640.88</c:v>
+                  <c:v>18291.410000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13614.119999999999</c:v>
+                  <c:v>9102.369999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5172,19 +5172,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27008.329999999998</c:v>
+                  <c:v>32044.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25951.899999999998</c:v>
+                  <c:v>29485.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37882.620000000003</c:v>
+                  <c:v>33227.630000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30677.900000000005</c:v>
+                  <c:v>25828.369999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27756.519999999997</c:v>
+                  <c:v>19552.480000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,22 +5541,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$H$16:$H$21</c:f>
+              <c:f>Dashboard!$H$16:$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Australia</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Canada</c:v>
+                  <c:v>India</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>India</c:v>
+                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>USA</c:v>
                 </c:pt>
               </c:strCache>
@@ -5564,24 +5561,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$I$16:$I$21</c:f>
+              <c:f>Dashboard!$I$16:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9742,15 +9736,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>761150</xdr:colOff>
+      <xdr:colOff>845557</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>55116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
+      <xdr:colOff>113715</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>34312</xdr:rowOff>
+      <xdr:rowOff>6177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9765,8 +9759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="761150" y="11217314"/>
-          <a:ext cx="30800375" cy="14670671"/>
+          <a:off x="845557" y="11675028"/>
+          <a:ext cx="31370630" cy="15312981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10093,8 +10087,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311867" y="23082718"/>
-              <a:ext cx="2081845" cy="2520280"/>
+              <a:off x="1311867" y="21945934"/>
+              <a:ext cx="2067634" cy="2397128"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10251,7 +10245,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>474932</xdr:colOff>
+      <xdr:colOff>437911</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>75149</xdr:rowOff>
     </xdr:to>
@@ -10289,8 +10283,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3850298" y="23094648"/>
-              <a:ext cx="2059879" cy="2494180"/>
+              <a:off x="3836087" y="21957864"/>
+              <a:ext cx="2072593" cy="2371028"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10387,9 +10381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>688231</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>179477</xdr:rowOff>
+      <xdr:colOff>652223</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>3630</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10425,8 +10419,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8702223" y="23053934"/>
-              <a:ext cx="2110484" cy="2639222"/>
+              <a:off x="8788271" y="21917150"/>
+              <a:ext cx="2119473" cy="2522582"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10465,7 +10459,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495973</xdr:colOff>
+      <xdr:colOff>458954</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>111218</xdr:rowOff>
     </xdr:to>
@@ -10503,8 +10497,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6295236" y="23099179"/>
-              <a:ext cx="2065855" cy="2525718"/>
+              <a:off x="6330760" y="21962395"/>
+              <a:ext cx="2073835" cy="2402566"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17817,7 +17811,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3468B74-744D-4EA6-87A7-3413C5D8BF0C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H15:I21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="H15:I20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0">
@@ -18036,10 +18030,10 @@
         <item h="1" x="13"/>
         <item h="1" x="17"/>
         <item h="1" x="4"/>
-        <item h="1" x="20"/>
+        <item x="20"/>
         <item h="1" x="7"/>
         <item h="1" x="1"/>
-        <item x="19"/>
+        <item h="1" x="19"/>
         <item h="1" x="9"/>
         <item h="1" x="11"/>
         <item h="1" x="8"/>
@@ -18958,12 +18952,9 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -19200,10 +19191,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="4"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
@@ -20385,8 +20376,8 @@
         <item h="1" x="3"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="4"/>
-        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21344,19 +21335,19 @@
   </rowFields>
   <rowItems count="6">
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i t="grand">
       <x/>
@@ -21593,10 +21584,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="4"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
@@ -22784,8 +22775,8 @@
         <item h="1" x="3"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="4"/>
-        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25070,8 +25061,8 @@
         <i x="3"/>
         <i x="0"/>
         <i x="1"/>
-        <i x="4" s="1"/>
-        <i x="2"/>
+        <i x="4"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -25087,10 +25078,10 @@
   <data>
     <tabular pivotCacheId="1158300011">
       <items count="5">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="2"/>
         <i x="4"/>
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="3"/>
       </items>
     </tabular>
@@ -25124,10 +25115,10 @@
         <i x="13"/>
         <i x="17"/>
         <i x="4"/>
-        <i x="20"/>
+        <i x="20" s="1"/>
         <i x="7"/>
         <i x="1"/>
-        <i x="19" s="1"/>
+        <i x="19"/>
         <i x="9"/>
         <i x="11"/>
         <i x="8"/>
@@ -25454,8 +25445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8F8C40-DDD7-42DB-A8DD-8E8E967DB113}">
   <dimension ref="A3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="33" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AU70" sqref="AU70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25463,12 +25454,12 @@
     <col min="1" max="1" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.3984375" bestFit="1" customWidth="1"/>
@@ -25531,7 +25522,7 @@
         <v>1015</v>
       </c>
       <c r="E4" s="6">
-        <v>28088.449999999997</v>
+        <v>39335.760000000002</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>1049</v>
@@ -25551,13 +25542,13 @@
         <v>1016</v>
       </c>
       <c r="E5" s="6">
-        <v>30034.27</v>
+        <v>26421.920000000002</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="I5" s="6">
-        <v>27008.329999999998</v>
+        <v>32044.92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -25571,13 +25562,13 @@
         <v>1018</v>
       </c>
       <c r="E6" s="6">
-        <v>25678.04</v>
+        <v>20093.29</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>1046</v>
       </c>
       <c r="I6" s="6">
-        <v>25951.899999999998</v>
+        <v>29485.95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -25591,13 +25582,13 @@
         <v>1014</v>
       </c>
       <c r="E7" s="6">
-        <v>23455.410000000003</v>
+        <v>32411.67</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>1044</v>
       </c>
       <c r="I7" s="6">
-        <v>37882.620000000003</v>
+        <v>33227.630000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -25611,13 +25602,13 @@
         <v>1017</v>
       </c>
       <c r="E8" s="6">
-        <v>20037.87</v>
+        <v>20603.900000000001</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="I8" s="6">
-        <v>30677.900000000005</v>
+        <v>25828.369999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -25631,13 +25622,13 @@
         <v>1050</v>
       </c>
       <c r="E9" s="6">
-        <v>127294.04000000001</v>
+        <v>138866.54</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="I9" s="6">
-        <v>27756.519999999997</v>
+        <v>19552.480000000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -25651,7 +25642,7 @@
         <v>1050</v>
       </c>
       <c r="I10" s="6">
-        <v>149277.27000000002</v>
+        <v>140139.35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -25679,7 +25670,7 @@
         <v>1052</v>
       </c>
       <c r="E12" s="6">
-        <v>12106.8</v>
+        <v>12957.619999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -25693,7 +25684,7 @@
         <v>1053</v>
       </c>
       <c r="E13" s="6">
-        <v>29003.079999999998</v>
+        <v>22091.600000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -25707,7 +25698,7 @@
         <v>1054</v>
       </c>
       <c r="E14" s="6">
-        <v>23708.87</v>
+        <v>15915.41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -25721,7 +25712,7 @@
         <v>1055</v>
       </c>
       <c r="E15" s="6">
-        <v>16609.089999999997</v>
+        <v>14717.54</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>1049</v>
@@ -25741,13 +25732,13 @@
         <v>1056</v>
       </c>
       <c r="E16" s="6">
-        <v>16946.260000000002</v>
+        <v>33916.71</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>1012</v>
       </c>
       <c r="I16" s="6">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -25761,13 +25752,13 @@
         <v>1057</v>
       </c>
       <c r="E17" s="6">
-        <v>41494.420000000006</v>
+        <v>17216.060000000001</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I17" s="6">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -25781,13 +25772,13 @@
         <v>1058</v>
       </c>
       <c r="E18" s="6">
-        <v>9408.75</v>
+        <v>23324.41</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="I18" s="6">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -25801,13 +25792,13 @@
         <v>1050</v>
       </c>
       <c r="E19" s="6">
-        <v>149277.27000000002</v>
+        <v>140139.35</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I19" s="6">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -25818,10 +25809,10 @@
         <v>7122.43</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1011</v>
+        <v>1050</v>
       </c>
       <c r="I20" s="6">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -25837,12 +25828,6 @@
       <c r="E21" t="s">
         <v>1051</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I21" s="6">
-        <v>118</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -25852,10 +25837,10 @@
         <v>17537.82</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="E22" s="6">
-        <v>14131.06</v>
+        <v>11965.43</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -25866,10 +25851,10 @@
         <v>4605.7999999999993</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="E23" s="6">
-        <v>7332.47</v>
+        <v>7760.3099999999995</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -25880,10 +25865,10 @@
         <v>1716.3799999999999</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E24" s="6">
-        <v>7529.9500000000007</v>
+        <v>11356.99</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -25894,10 +25879,10 @@
         <v>2842.95</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="E25" s="6">
-        <v>7640.88</v>
+        <v>18291.410000000003</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -25908,10 +25893,10 @@
         <v>5076.8999999999996</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E26" s="6">
-        <v>13614.119999999999</v>
+        <v>9102.369999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -25925,7 +25910,7 @@
         <v>1050</v>
       </c>
       <c r="E27" s="6">
-        <v>50248.479999999996</v>
+        <v>58476.509999999995</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
